--- a/biology/Histoire de la zoologie et de la botanique/Henry_Doubleday_(1808-1875)/Henry_Doubleday_(1808-1875).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Doubleday_(1808-1875)/Henry_Doubleday_(1808-1875).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Doubleday est un ornithologue et un entomologiste britannique, né le 1er juillet 1808 à Epping (en), Essex et mort le 29 juin 1875.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné de Mary et Benjamin Doubleday, négociant quaker à Epping. Lui et son frère, Edward Doubleday (1810-1849), passent leur enfance à récolter des animaux et des plantes dans la forêt d’Epping. Son cousin est l’horticulteur Henry Doubleday (1810-1902).
 Doubleday voyage beaucoup à travers la Grande-Bretagne. Il fait notamment paraître A Nomenclature of British Birds (1838) et Synonymic List of British Lepidoptera (1847 à 1850) où il tente d’unifier la nomenclature des insectes du pays.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1843 : Description de deux nouvelles espèces de Charaxes des Index orientales, de la Collection de M. Henri Doubleday. Annls. Soc. ent. Fr. (2) 1 (3) : 217-220, pl. 7, 8.</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
